--- a/Data_science_outputs_highlands/Graphs/Third/4/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/4/Montlhy_consumption_3.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19605.39232543336</v>
+        <v>11624.27565835002</v>
       </c>
       <c r="C2" t="n">
-        <v>2660.190442300005</v>
+        <v>9010.524592400021</v>
       </c>
       <c r="D2" t="n">
-        <v>5773.84967345</v>
+        <v>647.2151098666667</v>
       </c>
       <c r="E2" t="n">
-        <v>2017.087552883333</v>
+        <v>1732.8647128</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18310.59233683336</v>
+        <v>10855.09037805002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5394.635482416666</v>
+        <v>620.9002852833333</v>
       </c>
       <c r="E3" t="n">
-        <v>1874.749056916667</v>
+        <v>1620.716856433333</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19522.90578176669</v>
+        <v>11616.93054620002</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5780.466324466666</v>
+        <v>646.7858342833333</v>
       </c>
       <c r="E4" t="n">
-        <v>1992.6938995</v>
+        <v>1750.22749645</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18945.24684575002</v>
+        <v>11210.55010646669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5615.6594634</v>
+        <v>642.4001354666666</v>
       </c>
       <c r="E5" t="n">
-        <v>1901.323793466667</v>
+        <v>1659.246437983333</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19609.17240526669</v>
+        <v>11602.36432738335</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5764.277216083333</v>
+        <v>666.0525349166667</v>
       </c>
       <c r="E6" t="n">
-        <v>1950.262173133333</v>
+        <v>1704.26310305</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18980.05839128336</v>
+        <v>11220.79758463335</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5572.698514766666</v>
+        <v>647.0498892166667</v>
       </c>
       <c r="E7" t="n">
-        <v>1907.263202716667</v>
+        <v>1684.611279166667</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19580.08887680003</v>
+        <v>11624.10083925002</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5766.268663516666</v>
+        <v>649.4375615</v>
       </c>
       <c r="E8" t="n">
-        <v>1973.498342316667</v>
+        <v>1745.6065381</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19564.88064453336</v>
+        <v>11624.69609606669</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5771.507798633333</v>
+        <v>663.62569135</v>
       </c>
       <c r="E9" t="n">
-        <v>1986.835523083333</v>
+        <v>1715.76234135</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18912.42016395002</v>
+        <v>11232.73495996669</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5601.2995762</v>
+        <v>630.4914867666666</v>
       </c>
       <c r="E10" t="n">
-        <v>1903.709462566667</v>
+        <v>1664.9078982</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19529.31212086669</v>
+        <v>11572.88990253335</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5776.384247016666</v>
+        <v>655.8046475</v>
       </c>
       <c r="E11" t="n">
-        <v>1979.680700583333</v>
+        <v>1720.5006165</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18900.55909445003</v>
+        <v>11231.82377925002</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5597.721618066666</v>
+        <v>640.8813286333334</v>
       </c>
       <c r="E12" t="n">
-        <v>1906.152343766667</v>
+        <v>1657.512893666667</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19045.74596528336</v>
+        <v>11257.54204516669</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5600.97550935</v>
+        <v>636.4208622333333</v>
       </c>
       <c r="E13" t="n">
-        <v>1910.13350515</v>
+        <v>1658.265398383333</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
